--- a/Data/XLSX/FuenteDeNotificacion/fn2005h.xlsx
+++ b/Data/XLSX/FuenteDeNotificacion/fn2005h.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="124519" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -20,7 +25,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Created by Online2PDF.com</t>
     </r>
@@ -32,7 +36,6 @@
         <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Casos de Mordeduras por perro (W54) por fuente de notificación</t>
     </r>
@@ -44,7 +47,6 @@
         <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>Estados Unidos Mexicanos</t>
     </r>
@@ -64,1065 +66,971 @@
         <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
+      </rPr>
+      <t>2005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Masculino</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Fuente de notificación</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Estado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>SALUD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>IMSS-ORD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ISSSTE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>IMSS-OP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>DIF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>PEMEX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>SEDENA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>SEMAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>OTRAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Total</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Aguascalientes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Baja California</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Baja California Sur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Campeche</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Coahuila</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 074</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Colima</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Chiapas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 561</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Chihuahua</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 746</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2 403</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Distrito Federal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>9 223</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>10 543</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Durango</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 440</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 691</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Guanajuato</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2 783</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3 352</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Guerrero</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 848</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2 274</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Hidalgo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2 149</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2 512</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Jalisco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2 306</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 419</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>4 324</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>México</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>10 279</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Michoacán</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 975</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2 528</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Morelos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 129</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Nayarit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Nuevo León</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 105</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2 410</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Oaxaca</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 090</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 013</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2 317</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Puebla</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>4 750</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>6 027</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Querétaro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Quintana Roo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 054</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>San Luis Potosí</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 519</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2 260</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sinaloa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 094</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sonora</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Tabasco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Tamaulipas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 244</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 763</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Tlaxcala</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 033</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Veracruz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3 235</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>4 358</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Yucatán</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 114</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 654</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Zacatecas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2005</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Masculino</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
+      <t>OTAL GLOBAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>56 292</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>7 557</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1 637</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>5 129</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3 085</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>74 529</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Fuente de notificación</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Estado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SALUD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IMSS-ORD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ISSSTE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IMSS-OP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DIF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PEMEX</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SEDENA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SEMAR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>OTRAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Total</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Aguascalientes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Baja California</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Baja California Sur</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Campeche</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Coahuila</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 074</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Colima</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Chiapas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 561</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Chihuahua</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 746</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 403</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Distrito Federal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>9 223</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>10 543</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Durango</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 440</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 691</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Guanajuato</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 783</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3 352</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Guerrero</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 848</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 274</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hidalgo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 149</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 512</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Jalisco</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 306</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 419</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4 324</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>México</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>10 279</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Michoacán</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 975</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 528</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Morelos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 129</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nayarit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nuevo León</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 105</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 410</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oaxaca</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 090</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 013</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 317</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Puebla</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4 750</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6 027</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Querétaro</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Quintana Roo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 054</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>San Luis Potosí</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 519</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 260</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sinaloa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 094</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sonora</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabasco</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tamaulipas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 244</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 763</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tlaxcala</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 033</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Veracruz</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3 235</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4 358</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yucatán</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 114</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 654</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Zacatecas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>OTAL GLOBAL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>56 292</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7 557</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1 637</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5 129</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3 085</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>74 529</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">UENTE : </t>
     </r>
     <r>
       <rPr>
         <sz val="7"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Sistema Único de Información para la Vigilancia Epidemiológica/Dirección General de Epidemiología/ </t>
     </r>
@@ -1143,7 +1051,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1185,35 +1093,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1374,27 +1258,27 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1693,11 +1577,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -1714,32 +1600,32 @@
     <col min="13" max="13" width="2.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="14" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="14" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="14" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="14" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="14" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="9" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1764,18 +1650,21 @@
       <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="27"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="8" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1800,18 +1689,24 @@
       <c r="H7" s="11">
         <v>1</v>
       </c>
-      <c r="I7" s="28">
-        <v>0</v>
-      </c>
-      <c r="J7" s="28"/>
+      <c r="I7" s="32">
+        <v>0</v>
+      </c>
+      <c r="J7" s="32"/>
       <c r="K7" s="11">
         <v>2</v>
       </c>
       <c r="L7" s="11">
         <v>536</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="9" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
@@ -1836,10 +1731,10 @@
       <c r="H8" s="14">
         <v>17</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="30">
         <v>2</v>
       </c>
-      <c r="J8" s="29"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="14">
         <v>105</v>
       </c>
@@ -1847,7 +1742,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="9" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1872,10 +1767,10 @@
       <c r="H9" s="14">
         <v>6</v>
       </c>
-      <c r="I9" s="29">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29"/>
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="30"/>
       <c r="K9" s="14">
         <v>0</v>
       </c>
@@ -1883,7 +1778,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="8" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
@@ -1908,10 +1803,10 @@
       <c r="H10" s="14">
         <v>0</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="30">
         <v>3</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="14">
         <v>37</v>
       </c>
@@ -1919,7 +1814,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="9" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -1944,10 +1839,10 @@
       <c r="H11" s="17">
         <v>7</v>
       </c>
-      <c r="I11" s="30">
-        <v>0</v>
-      </c>
-      <c r="J11" s="30"/>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27"/>
       <c r="K11" s="17">
         <v>206</v>
       </c>
@@ -1955,7 +1850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="9" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
@@ -1980,10 +1875,10 @@
       <c r="H12" s="17">
         <v>2</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="27">
         <v>13</v>
       </c>
-      <c r="J12" s="30"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="17">
         <v>3</v>
       </c>
@@ -1991,7 +1886,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="9" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
@@ -2016,10 +1911,10 @@
       <c r="H13" s="17">
         <v>20</v>
       </c>
-      <c r="I13" s="30">
-        <v>0</v>
-      </c>
-      <c r="J13" s="30"/>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27"/>
       <c r="K13" s="17">
         <v>5</v>
       </c>
@@ -2027,7 +1922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="8" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
@@ -2052,10 +1947,10 @@
       <c r="H14" s="17">
         <v>4</v>
       </c>
-      <c r="I14" s="30">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30"/>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27"/>
       <c r="K14" s="17">
         <v>262</v>
       </c>
@@ -2063,7 +1958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="9" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
@@ -2088,10 +1983,10 @@
       <c r="H15" s="14">
         <v>37</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="30">
         <v>12</v>
       </c>
-      <c r="J15" s="29"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="14">
         <v>54</v>
       </c>
@@ -2099,7 +1994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="9" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
@@ -2124,10 +2019,10 @@
       <c r="H16" s="14">
         <v>2</v>
       </c>
-      <c r="I16" s="29">
-        <v>0</v>
-      </c>
-      <c r="J16" s="29"/>
+      <c r="I16" s="30">
+        <v>0</v>
+      </c>
+      <c r="J16" s="30"/>
       <c r="K16" s="14">
         <v>0</v>
       </c>
@@ -2135,7 +2030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="9" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
@@ -2160,10 +2055,10 @@
       <c r="H17" s="14">
         <v>7</v>
       </c>
-      <c r="I17" s="29">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29"/>
+      <c r="I17" s="30">
+        <v>0</v>
+      </c>
+      <c r="J17" s="30"/>
       <c r="K17" s="14">
         <v>33</v>
       </c>
@@ -2171,7 +2066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="8" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
@@ -2196,10 +2091,10 @@
       <c r="H18" s="14">
         <v>3</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="30">
         <v>7</v>
       </c>
-      <c r="J18" s="29"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="14">
         <v>0</v>
       </c>
@@ -2207,7 +2102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="9" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>41</v>
       </c>
@@ -2232,10 +2127,10 @@
       <c r="H19" s="17">
         <v>0</v>
       </c>
-      <c r="I19" s="30">
-        <v>0</v>
-      </c>
-      <c r="J19" s="30"/>
+      <c r="I19" s="27">
+        <v>0</v>
+      </c>
+      <c r="J19" s="27"/>
       <c r="K19" s="17">
         <v>18</v>
       </c>
@@ -2243,7 +2138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="9" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>44</v>
       </c>
@@ -2268,10 +2163,10 @@
       <c r="H20" s="17">
         <v>12</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="27">
         <v>1</v>
       </c>
-      <c r="J20" s="30"/>
+      <c r="J20" s="27"/>
       <c r="K20" s="17">
         <v>570</v>
       </c>
@@ -2279,7 +2174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="9" customHeight="1">
       <c r="A21" s="15" t="s">
         <v>48</v>
       </c>
@@ -2304,10 +2199,10 @@
       <c r="H21" s="17">
         <v>40</v>
       </c>
-      <c r="I21" s="30">
-        <v>0</v>
-      </c>
-      <c r="J21" s="30"/>
+      <c r="I21" s="27">
+        <v>0</v>
+      </c>
+      <c r="J21" s="27"/>
       <c r="K21" s="17">
         <v>344</v>
       </c>
@@ -2315,7 +2210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="8" customHeight="1">
       <c r="A22" s="15" t="s">
         <v>50</v>
       </c>
@@ -2340,10 +2235,10 @@
       <c r="H22" s="17">
         <v>0</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="27">
         <v>3</v>
       </c>
-      <c r="J22" s="30"/>
+      <c r="J22" s="27"/>
       <c r="K22" s="17">
         <v>0</v>
       </c>
@@ -2351,7 +2246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="9" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>53</v>
       </c>
@@ -2376,10 +2271,10 @@
       <c r="H23" s="14">
         <v>0</v>
       </c>
-      <c r="I23" s="29">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29"/>
+      <c r="I23" s="30">
+        <v>0</v>
+      </c>
+      <c r="J23" s="30"/>
       <c r="K23" s="14">
         <v>0</v>
       </c>
@@ -2387,7 +2282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="9" customHeight="1">
       <c r="A24" s="12" t="s">
         <v>55</v>
       </c>
@@ -2412,10 +2307,10 @@
       <c r="H24" s="14">
         <v>0</v>
       </c>
-      <c r="I24" s="29">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29"/>
+      <c r="I24" s="30">
+        <v>0</v>
+      </c>
+      <c r="J24" s="30"/>
       <c r="K24" s="14">
         <v>16</v>
       </c>
@@ -2423,7 +2318,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="9" customHeight="1">
       <c r="A25" s="12" t="s">
         <v>56</v>
       </c>
@@ -2448,10 +2343,10 @@
       <c r="H25" s="14">
         <v>2</v>
       </c>
-      <c r="I25" s="29">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29"/>
+      <c r="I25" s="30">
+        <v>0</v>
+      </c>
+      <c r="J25" s="30"/>
       <c r="K25" s="14">
         <v>898</v>
       </c>
@@ -2459,7 +2354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="8" customHeight="1">
       <c r="A26" s="12" t="s">
         <v>59</v>
       </c>
@@ -2484,10 +2379,10 @@
       <c r="H26" s="14">
         <v>12</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="30">
         <v>15</v>
       </c>
-      <c r="J26" s="29"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="14">
         <v>18</v>
       </c>
@@ -2495,7 +2390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="9" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>63</v>
       </c>
@@ -2520,10 +2415,10 @@
       <c r="H27" s="17">
         <v>5</v>
       </c>
-      <c r="I27" s="30">
-        <v>0</v>
-      </c>
-      <c r="J27" s="30"/>
+      <c r="I27" s="27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="27"/>
       <c r="K27" s="17">
         <v>179</v>
       </c>
@@ -2531,7 +2426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="9" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>66</v>
       </c>
@@ -2556,10 +2451,10 @@
       <c r="H28" s="17">
         <v>0</v>
       </c>
-      <c r="I28" s="30">
-        <v>0</v>
-      </c>
-      <c r="J28" s="30"/>
+      <c r="I28" s="27">
+        <v>0</v>
+      </c>
+      <c r="J28" s="27"/>
       <c r="K28" s="17">
         <v>3</v>
       </c>
@@ -2567,7 +2462,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="9" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>67</v>
       </c>
@@ -2592,10 +2487,10 @@
       <c r="H29" s="17">
         <v>0</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="27">
         <v>2</v>
       </c>
-      <c r="J29" s="30"/>
+      <c r="J29" s="27"/>
       <c r="K29" s="17">
         <v>0</v>
       </c>
@@ -2603,7 +2498,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="8" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>69</v>
       </c>
@@ -2628,10 +2523,10 @@
       <c r="H30" s="17">
         <v>6</v>
       </c>
-      <c r="I30" s="30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="30"/>
+      <c r="I30" s="27">
+        <v>0</v>
+      </c>
+      <c r="J30" s="27"/>
       <c r="K30" s="17">
         <v>31</v>
       </c>
@@ -2639,7 +2534,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="9" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>72</v>
       </c>
@@ -2664,10 +2559,10 @@
       <c r="H31" s="14">
         <v>2</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="30">
         <v>5</v>
       </c>
-      <c r="J31" s="29"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="14">
         <v>210</v>
       </c>
@@ -2675,7 +2570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="9" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>74</v>
       </c>
@@ -2700,10 +2595,10 @@
       <c r="H32" s="14">
         <v>0</v>
       </c>
-      <c r="I32" s="29">
-        <v>0</v>
-      </c>
-      <c r="J32" s="29"/>
+      <c r="I32" s="30">
+        <v>0</v>
+      </c>
+      <c r="J32" s="30"/>
       <c r="K32" s="14">
         <v>39</v>
       </c>
@@ -2711,7 +2606,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="9" customHeight="1">
       <c r="A33" s="12" t="s">
         <v>75</v>
       </c>
@@ -2736,10 +2631,10 @@
       <c r="H33" s="14">
         <v>1</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="30">
         <v>1</v>
       </c>
-      <c r="J33" s="29"/>
+      <c r="J33" s="30"/>
       <c r="K33" s="14">
         <v>39</v>
       </c>
@@ -2747,7 +2642,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="8" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
@@ -2772,10 +2667,10 @@
       <c r="H34" s="14">
         <v>6</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="30">
         <v>2</v>
       </c>
-      <c r="J34" s="29"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="14">
         <v>11</v>
       </c>
@@ -2783,7 +2678,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="9" customHeight="1">
       <c r="A35" s="15" t="s">
         <v>79</v>
       </c>
@@ -2808,10 +2703,10 @@
       <c r="H35" s="17">
         <v>1</v>
       </c>
-      <c r="I35" s="30">
-        <v>0</v>
-      </c>
-      <c r="J35" s="30"/>
+      <c r="I35" s="27">
+        <v>0</v>
+      </c>
+      <c r="J35" s="27"/>
       <c r="K35" s="17">
         <v>0</v>
       </c>
@@ -2819,7 +2714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="9" customHeight="1">
       <c r="A36" s="15" t="s">
         <v>81</v>
       </c>
@@ -2844,10 +2739,10 @@
       <c r="H36" s="17">
         <v>4</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="27">
         <v>5</v>
       </c>
-      <c r="J36" s="30"/>
+      <c r="J36" s="27"/>
       <c r="K36" s="17">
         <v>0</v>
       </c>
@@ -2855,7 +2750,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="9" customHeight="1">
       <c r="A37" s="15" t="s">
         <v>84</v>
       </c>
@@ -2880,10 +2775,10 @@
       <c r="H37" s="17">
         <v>8</v>
       </c>
-      <c r="I37" s="30">
-        <v>0</v>
-      </c>
-      <c r="J37" s="30"/>
+      <c r="I37" s="27">
+        <v>0</v>
+      </c>
+      <c r="J37" s="27"/>
       <c r="K37" s="17">
         <v>2</v>
       </c>
@@ -2891,7 +2786,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="11" customHeight="1">
       <c r="A38" s="21" t="s">
         <v>87</v>
       </c>
@@ -2916,10 +2811,10 @@
       <c r="H38" s="23">
         <v>3</v>
       </c>
-      <c r="I38" s="31">
-        <v>0</v>
-      </c>
-      <c r="J38" s="31"/>
+      <c r="I38" s="28">
+        <v>0</v>
+      </c>
+      <c r="J38" s="28"/>
       <c r="K38" s="23">
         <v>0</v>
       </c>
@@ -2927,7 +2822,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="9" customHeight="1">
       <c r="A39" s="24" t="s">
         <v>88</v>
       </c>
@@ -2952,10 +2847,10 @@
       <c r="H39" s="25">
         <v>208</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="29">
         <v>71</v>
       </c>
-      <c r="J39" s="32"/>
+      <c r="J39" s="29"/>
       <c r="K39" s="6" t="s">
         <v>93</v>
       </c>
@@ -2963,13 +2858,38 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="10" customHeight="1">
       <c r="A40" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>
@@ -2979,32 +2899,12 @@
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>